--- a/biology/Médecine/1874_en_santé_et_médecine/1874_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1874_en_santé_et_médecine/1874_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1874_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1874_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1874 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1874_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1874_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,22 +523,24 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-24 avril : Jules Ferry inaugure  la Faculté mixte de médecine et de pharmacie de Lille[1].
-23 décembre : en France, loi relative à la protection des enfants du premier âge, en particulier des nourrissons[2].
-La Société Française de médecine légale est reconnue d'utilité publique[3].
-Alphonse Laveran (1845-1922) obtient son agrégation de médecine[4].
-Alexandre Lacassagne (1843-1924) obtient la Chaire d’hygiène et de médecine légale du Val de Grâce[5].
+24 avril : Jules Ferry inaugure  la Faculté mixte de médecine et de pharmacie de Lille.
+23 décembre : en France, loi relative à la protection des enfants du premier âge, en particulier des nourrissons.
+La Société Française de médecine légale est reconnue d'utilité publique.
+Alphonse Laveran (1845-1922) obtient son agrégation de médecine.
+Alexandre Lacassagne (1843-1924) obtient la Chaire d’hygiène et de médecine légale du Val de Grâce.
 Allemagne
-Emil Adolf von Behring (1854-1917) entre à l’École de médecine militaire de Berlin (en allemand : Kaiser-Wilhelm-Akademie für das militärärztliche Wesen)[6].
+Emil Adolf von Behring (1854-1917) entre à l’École de médecine militaire de Berlin (en allemand : Kaiser-Wilhelm-Akademie für das militärärztliche Wesen).
 Empire austro-hongrois
-Othmar Zeidler (en) (1850-1911) découvre la DDT[7].
+Othmar Zeidler (en) (1850-1911) découvre la DDT.
 Angleterre
-Fondation de la London School of Medicine for Women[8].
+Fondation de la London School of Medicine for Women.
 États-Unis
-22 juin : Andrew Taylor Still (1828-1917) crée l'ostéopathie[9],[Note 1].</t>
+22 juin : Andrew Taylor Still (1828-1917) crée l'ostéopathie,[Note 1].</t>
         </is>
       </c>
     </row>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1874_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1874_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,11 +568,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gustave Le Bon (1841-1931) : La vie, physiologie humaine appliquée à l'hygiène et à la médecine[10].
-Theodor Billroth (1829-1894) : Untersuchungen über die vegetationsformen von coccobacteria septica und den antheil, welchen sie an der entstehung und verbreitung der accidentellen wundkrankheiten haben (Études sur les formes végétatives des coccobactéries septiques et leur rôle dans le développement et la propagation des maladies des plaies accidentelles)[11],[12].
-Wilhelm Wundt (1832-1920) : Grundzüge der physiologischen Psychologie (« Principes de psychologie physiologique »[13], une description minutieuse du système nerveux, de sa nature, sa structure et son fonctionnement.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gustave Le Bon (1841-1931) : La vie, physiologie humaine appliquée à l'hygiène et à la médecine.
+Theodor Billroth (1829-1894) : Untersuchungen über die vegetationsformen von coccobacteria septica und den antheil, welchen sie an der entstehung und verbreitung der accidentellen wundkrankheiten haben (Études sur les formes végétatives des coccobactéries septiques et leur rôle dans le développement et la propagation des maladies des plaies accidentelles),.
+Wilhelm Wundt (1832-1920) : Grundzüge der physiologischen Psychologie (« Principes de psychologie physiologique », une description minutieuse du système nerveux, de sa nature, sa structure et son fonctionnement.</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1874_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1874_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille Copley : Louis Pasteur (1822-1895).</t>
         </is>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1874_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1874_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">16 mai : Eugène Osty (mort en 1938), médecin chercheur en parapsychologie français.
 18 mai : Madeleine Pelletier (morte en 1939), psychiatre et féministe française.
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1874_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1874_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,7 +677,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">10 mars : Jean Cruveilhier (né en 1791), médecin, chirurgien, anatomiste et pathologiste français.
 5 juin : François Désiré Roulin (né en 1796), médecin, illustrateur et naturaliste français.
